--- a/git_excell_trial.xlsx
+++ b/git_excell_trial.xlsx
@@ -158,7 +158,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>309.0</v>
+        <v>789.0</v>
       </c>
     </row>
     <row r="5">
